--- a/reportes/Devolucion.xlsx
+++ b/reportes/Devolucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>FORMULARIO DE DEVOLUCION DE ACTIVOS FIJOS</t>
   </si>
@@ -75,21 +75,6 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>ENTREGUE CONFORME</t>
-  </si>
-  <si>
-    <t>RECIBI CONFORME</t>
-  </si>
-  <si>
-    <t>* CUSTODIO</t>
-  </si>
-  <si>
-    <t>* Esta casilla sera firmada por personal que trabaja en la empresa pero no figura en las planillas de BOA</t>
   </si>
 </sst>
 </file>
@@ -143,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,29 +188,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,92 +209,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,37 +651,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -744,91 +694,91 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -837,7 +787,7 @@
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -846,128 +796,813 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="17"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G14:H14"/>
+  <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>

--- a/reportes/Devolucion.xlsx
+++ b/reportes/Devolucion.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.e.a\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -210,6 +205,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -221,63 +273,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,40 +296,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>347717</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
+      <xdr:colOff>835818</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Logo"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="342900" y="133350"/>
-          <a:ext cx="1314449" cy="428624"/>
+          <a:off x="566792" y="9525"/>
+          <a:ext cx="1221526" cy="552449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -624,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,7 +629,7 @@
   <dimension ref="B1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,37 +645,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -694,91 +688,91 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -796,796 +790,797 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="G13:H13"/>
@@ -1602,7 +1597,6 @@
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
